--- a/data/trans_camb/P17_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P17_R2-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.548385357010847</v>
+        <v>-8.636085869281725</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.78522870792607</v>
+        <v>-17.62538719700098</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-18.09272424953734</v>
+        <v>-17.99629580547978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.375493780701758</v>
+        <v>-3.946571480612695</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.835317794771766</v>
+        <v>-10.3382333291042</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-14.47035494978182</v>
+        <v>-14.89634632389528</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.063627291577342</v>
+        <v>-3.644621703262167</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-12.32598391696195</v>
+        <v>-12.0553865702877</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.51986405914419</v>
+        <v>-14.75365915618152</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.451829463348066</v>
+        <v>3.573785415626501</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-5.579165459965331</v>
+        <v>-6.337034472552386</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.612851548342399</v>
+        <v>-7.528299250264396</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.28952797099979</v>
+        <v>13.04779895021341</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.222441452196688</v>
+        <v>4.199808765316766</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.865270675568786</v>
+        <v>-1.720468840841617</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.148309242352241</v>
+        <v>5.443119575011641</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-3.424430324514725</v>
+        <v>-3.275396787662994</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-6.264353497274114</v>
+        <v>-6.438299090264513</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.282677792271546</v>
+        <v>-0.2852484653023045</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5557286796093767</v>
+        <v>-0.5670678724952579</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5914412163530517</v>
+        <v>-0.5856716176638714</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08189037880819164</v>
+        <v>-0.1154660504932584</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2929931904183826</v>
+        <v>-0.3021802689195365</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4138476359846227</v>
+        <v>-0.4230255583652671</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1331477715233374</v>
+        <v>-0.1187213650073823</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3955613144045966</v>
+        <v>-0.3820195140382313</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4615751890292099</v>
+        <v>-0.461825072246014</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1412311678474743</v>
+        <v>0.1534232565356449</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2280815877165789</v>
+        <v>-0.2508975600898253</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3044433842137982</v>
+        <v>-0.2961736078133154</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4952494812446744</v>
+        <v>0.4815177941207649</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1517279238657396</v>
+        <v>0.1581644662278803</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.06909092083282332</v>
+        <v>-0.06543849820105907</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1958525363952864</v>
+        <v>0.2097110702352557</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1278340199303818</v>
+        <v>-0.1189092028908255</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2422157317762869</v>
+        <v>-0.2421026506096388</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.9199229593713</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-9.33839523115563</v>
+        <v>-9.338395231155634</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>14.33523267250135</v>
@@ -878,7 +878,7 @@
         <v>-5.242515887580559</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-8.792362760688304</v>
+        <v>-8.792362760688309</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3840941281117461</v>
+        <v>-0.9514942187217215</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.80907859038012</v>
+        <v>-10.72350105157079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-15.67879493919461</v>
+        <v>-15.54483784148372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.963077264665538</v>
+        <v>7.024028964764082</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.96958295801058</v>
+        <v>-13.5650411019345</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-13.95543015924884</v>
+        <v>-14.01814791634024</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.558212904704749</v>
+        <v>4.363637893244449</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.598712669085259</v>
+        <v>-9.707506494822134</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-12.80300425188856</v>
+        <v>-13.75619910458911</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.08742088583768</v>
+        <v>12.4481134601469</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.632727646687845</v>
+        <v>2.505306104221177</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.652122583286158</v>
+        <v>-3.214590489706866</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21.91715795646584</v>
+        <v>22.18659821794574</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6484153853107547</v>
+        <v>0.2484375755205924</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.017041951010364</v>
+        <v>-1.559125499313785</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.2323700802979</v>
+        <v>14.77857377836759</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.4059766204892741</v>
+        <v>-0.073942875003448</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-4.497618366992596</v>
+        <v>-4.66437007326266</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1474169667312109</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3511900395447978</v>
+        <v>-0.3511900395447979</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4264640037440511</v>
@@ -983,7 +983,7 @@
         <v>-0.1739733439310222</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2917753199671219</v>
+        <v>-0.2917753199671221</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02260561551522618</v>
+        <v>-0.02759876091932489</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3526807623038956</v>
+        <v>-0.3464981318153748</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5100406195392815</v>
+        <v>-0.5159933152798044</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1900617726232325</v>
+        <v>0.1962499710443126</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3563715726559902</v>
+        <v>-0.3692071688374375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.371154399976716</v>
+        <v>-0.3771002251841001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1427510373236886</v>
+        <v>0.1319526380481887</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3012996862318141</v>
+        <v>-0.3011678247129104</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3965335895774205</v>
+        <v>-0.4201521229472799</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5705133287408368</v>
+        <v>0.5353942683659787</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1158756225155375</v>
+        <v>0.1063399300348182</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1069580139944447</v>
+        <v>-0.1350271733222596</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.742430688353709</v>
+        <v>0.7288977667983172</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02263376275328905</v>
+        <v>0.01098830048566976</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.03439144118751432</v>
+        <v>-0.04984204344740758</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.522628525581154</v>
+        <v>0.5351366999526644</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.01417968944252197</v>
+        <v>-0.002792484075301993</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1591785807084503</v>
+        <v>-0.1700778241860023</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-6.29875818668755</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-9.869964017420669</v>
+        <v>-9.869964017420664</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-9.674161199514646</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.664445756110551</v>
+        <v>-6.242972358874416</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.65387232569588</v>
+        <v>-11.40831391821632</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.36553269457725</v>
+        <v>-14.68265754186447</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-18.51122054366698</v>
+        <v>-19.79342744665051</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-32.51931413338224</v>
+        <v>-32.62377768113974</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-28.04277675530971</v>
+        <v>-27.52079574944141</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.035717881595528</v>
+        <v>-7.044448869929315</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-14.49566737516804</v>
+        <v>-14.43770784937307</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-15.98116989053552</v>
+        <v>-16.29965915411033</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.434234583928119</v>
+        <v>4.839427869707673</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.163652414109909</v>
+        <v>-0.9486071002970893</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.595929354535407</v>
+        <v>-4.303488013858706</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5645374906328917</v>
+        <v>-0.4807109868112643</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-12.06762607528944</v>
+        <v>-12.89947286556882</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-9.817443348552121</v>
+        <v>-9.451391522876193</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.531830942355393</v>
+        <v>2.095237223458602</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-5.384264434808953</v>
+        <v>-5.498998237527691</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-6.973667453170264</v>
+        <v>-7.363123370355261</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2397641638629052</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3757032100383465</v>
+        <v>-0.3757032100383463</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2345345365830871</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1992138292515377</v>
+        <v>-0.215618839266962</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4106421389104505</v>
+        <v>-0.400585932616841</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5305931070971376</v>
+        <v>-0.517117675184644</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.402740583358264</v>
+        <v>-0.4133792590643897</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.691931912349661</v>
+        <v>-0.6908148278206074</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6047321702829701</v>
+        <v>-0.599112826447217</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2144376466992637</v>
+        <v>-0.2204304397374248</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4561860805687559</v>
+        <v>-0.4581950975674762</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5007434070641134</v>
+        <v>-0.5028319942510582</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1831421861500342</v>
+        <v>0.204285083409327</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.05147164892978595</v>
+        <v>-0.03696792474412613</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1911286470000748</v>
+        <v>-0.1780799660194342</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.02076971907382666</v>
+        <v>-0.00951861509253228</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3312041740052085</v>
+        <v>-0.3455553585356264</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2706095560998583</v>
+        <v>-0.2763957228965078</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09567219017602847</v>
+        <v>0.07739189807541282</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2001062852271175</v>
+        <v>-0.2079777469771668</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2529784632782632</v>
+        <v>-0.2653822806379135</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-9.160070152997813</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-9.229847661335079</v>
+        <v>-9.229847661335072</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.666552660917787</v>
@@ -1306,7 +1306,7 @@
         <v>-5.822829737949331</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-8.55455099295906</v>
+        <v>-8.554550992959062</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.030578427974544</v>
+        <v>-0.8322080352893292</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.865741530584764</v>
+        <v>-7.463753665617936</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.65219571053175</v>
+        <v>-12.66694305288371</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.104541234405731</v>
+        <v>-3.401076734850851</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.4207415202524</v>
+        <v>-13.78208632456265</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-13.91602408287122</v>
+        <v>-13.82148777463608</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.238676288770097</v>
+        <v>-0.2318916199509277</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.64623845821497</v>
+        <v>-8.85241792132757</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-11.33782293769928</v>
+        <v>-11.71919898481298</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.581590929875826</v>
+        <v>6.555352142974547</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.8148403333273734</v>
+        <v>-0.9105412519338359</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-5.697663679437477</v>
+        <v>-5.853893132635476</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.343423067497363</v>
+        <v>6.237625278551103</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-4.197757723594044</v>
+        <v>-4.917048352871593</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-4.298970521702413</v>
+        <v>-4.846947629803581</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.525190168283985</v>
+        <v>5.986044592533123</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.704864421622814</v>
+        <v>-2.993097516708362</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-5.742220003167774</v>
+        <v>-6.043181810609353</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.2636127024812034</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2656207916375045</v>
+        <v>-0.2656207916375043</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.09430401612979906</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03959894782420055</v>
+        <v>-0.03356301861804558</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2981915825615894</v>
+        <v>-0.2836477370980137</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4805097117016359</v>
+        <v>-0.4935857190185048</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08323301399265466</v>
+        <v>-0.09530260930068245</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3657298972479766</v>
+        <v>-0.366501731800315</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3712881153383794</v>
+        <v>-0.3681016831215191</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.005352936354755507</v>
+        <v>-0.007288240290271447</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2882325996673443</v>
+        <v>-0.2929670627839395</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3796948910113242</v>
+        <v>-0.3913460655253239</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2883425693738413</v>
+        <v>0.2816522217124652</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.03313450103488672</v>
+        <v>-0.03517058464514135</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2468835138938058</v>
+        <v>-0.2589456266653031</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1949823918983185</v>
+        <v>0.1976032188563614</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1353125673041784</v>
+        <v>-0.1491456869243818</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1364416688331601</v>
+        <v>-0.1470547392329808</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2064345066705512</v>
+        <v>0.2220526637173162</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.09986547797755924</v>
+        <v>-0.1088250217111496</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2131232290435159</v>
+        <v>-0.2257604517251871</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-10.74258820432842</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-13.2047404982895</v>
+        <v>-13.20474049828949</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.30923628090724</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.993851784712191</v>
+        <v>-0.4867110272543566</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.492181375316</v>
+        <v>-10.35169334120815</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-12.03687197310389</v>
+        <v>-12.06292265365394</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.303447905370707</v>
+        <v>-4.115790033920033</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-15.76269297478259</v>
+        <v>-15.99725361281028</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-18.15498457180405</v>
+        <v>-18.20873666522601</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.801980588425844</v>
+        <v>-1.531402748400521</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-13.12728843105468</v>
+        <v>-13.14009837030632</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-14.59380664657305</v>
+        <v>-14.24463307046515</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.02214230149924</v>
+        <v>10.49086042407438</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2942700931505366</v>
+        <v>0.1954118315115127</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.000330852854705</v>
+        <v>-1.178419221940295</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.633056888221541</v>
+        <v>6.096885260470448</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-5.753970462782769</v>
+        <v>-5.8546583226968</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-8.727427625956478</v>
+        <v>-8.896311466488266</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.98413121770799</v>
+        <v>6.169437725330722</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-5.845243067452242</v>
+        <v>-5.836992921855439</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-7.253536584630614</v>
+        <v>-7.204016465976632</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.3271586719420232</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4021419496484843</v>
+        <v>-0.4021419496484842</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.08249215124189711</v>
@@ -1625,7 +1625,7 @@
         <v>-0.3241290279000719</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.3844395362961104</v>
+        <v>-0.3844395362961106</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.0391225462760239</v>
+        <v>-0.0251375009905813</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4417025912464925</v>
+        <v>-0.4346940137238433</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5016509194328257</v>
+        <v>-0.5182432596045354</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1191935617220483</v>
+        <v>-0.1133195931840734</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4374226888139628</v>
+        <v>-0.4506730160627831</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.497421413685194</v>
+        <v>-0.4986315681299172</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.05963843817792285</v>
+        <v>-0.05297077615225577</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4309944235757702</v>
+        <v>-0.4271783115454371</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.478074085670225</v>
+        <v>-0.4682833269141022</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6745547828887101</v>
+        <v>0.6213936068597888</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.02167693698976308</v>
+        <v>0.01225512851896506</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.05133417352088916</v>
+        <v>-0.05708470531808419</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1887576431152894</v>
+        <v>0.2125173402401038</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1843553164052145</v>
+        <v>-0.1932486487810026</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2930338338769486</v>
+        <v>-0.2911808504621042</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2335281646764155</v>
+        <v>0.2380623112246232</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2207640942119271</v>
+        <v>-0.2224015742085476</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2785775776030389</v>
+        <v>-0.2768457436940775</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>3.752440152979984</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-1.889247718882835</v>
+        <v>-1.889247718882834</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-0.2106036983719306</v>
@@ -1734,7 +1734,7 @@
         <v>-4.3867165036064</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-12.57708418449809</v>
+        <v>-12.57708418449808</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.904647317444175</v>
+        <v>-6.079710974005928</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.9857710680134687</v>
+        <v>-1.298995571768574</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-6.675895213390243</v>
+        <v>-6.71110950177207</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.113190668422926</v>
+        <v>-3.94480208361809</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.471485713199035</v>
+        <v>-9.674322828557987</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-18.03655697963353</v>
+        <v>-18.02755619335117</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.669191367255178</v>
+        <v>-3.612939675656073</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-7.311475960481603</v>
+        <v>-7.340890823186882</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-15.73637079620477</v>
+        <v>-15.34099697714672</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.389242664132625</v>
+        <v>2.244589285790779</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.864303480351937</v>
+        <v>8.921038210799722</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.470553197437244</v>
+        <v>4.831504869752285</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.338547588558326</v>
+        <v>3.345845158502319</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-2.406147046200906</v>
+        <v>-2.736669851669174</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-11.77076749404187</v>
+        <v>-11.57703454631327</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.397995833474129</v>
+        <v>2.451677897866294</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-1.500535539470807</v>
+        <v>-1.173829863377858</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-9.772942523226448</v>
+        <v>-9.653635465988037</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.5384670373069911</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.2711029571298955</v>
+        <v>-0.2711029571298953</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.008217404388716015</v>
@@ -1839,7 +1839,7 @@
         <v>-0.1990602119988293</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.5707223254648573</v>
+        <v>-0.5707223254648571</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6236143706324786</v>
+        <v>-0.6556922093207888</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1266848181244758</v>
+        <v>-0.1603730504521694</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.8284325251686292</v>
+        <v>-0.8242208020367078</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1465234240291702</v>
+        <v>-0.1425992917462864</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.352690587628686</v>
+        <v>-0.3556947326911997</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.6632814344992893</v>
+        <v>-0.6654812658635296</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1570984735404121</v>
+        <v>-0.1572989849809595</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3138535626749776</v>
+        <v>-0.3128063913283899</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.6582634274136272</v>
+        <v>-0.6572497853263773</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.5594076222935656</v>
+        <v>0.4759604606484726</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.834978869358106</v>
+        <v>1.703738107981551</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.9927093165743652</v>
+        <v>1.015877956885022</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1391578650976001</v>
+        <v>0.1429089285067667</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1047478153549463</v>
+        <v>-0.1110113694667445</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.4955984730100191</v>
+        <v>-0.4864445178126315</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1147047106972401</v>
+        <v>0.1202853404614336</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.0741738308043519</v>
+        <v>-0.05285210790784545</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.4706632047526041</v>
+        <v>-0.4588164934190022</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>-6.564367767202486</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-9.685492644882638</v>
+        <v>-9.68549264488264</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.01934131798650866</v>
+        <v>-0.2981426592076739</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.259198778441976</v>
+        <v>-7.444761991324958</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-10.65575440706254</v>
+        <v>-10.85364297237187</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.02624833558724795</v>
+        <v>-0.2183223257823707</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-9.866783718219802</v>
+        <v>-9.944515075958654</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-12.7002391696922</v>
+        <v>-12.60875406087899</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.5181539375747674</v>
+        <v>0.2600183851016353</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-8.048309581002162</v>
+        <v>-8.074459660225301</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-11.34867319809155</v>
+        <v>-11.16928921775442</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.310932309750413</v>
+        <v>3.994990596454773</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-3.27218889015579</v>
+        <v>-3.360337836741255</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-6.563490293841198</v>
+        <v>-6.767551541557062</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.548750693666479</v>
+        <v>4.45854655280558</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-5.610626134840635</v>
+        <v>-5.811830625607988</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-8.619594582380792</v>
+        <v>-8.508588454411457</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.828573694305213</v>
+        <v>3.556730595775846</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-5.18875120424149</v>
+        <v>-5.029843934799668</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-8.338768110980853</v>
+        <v>-8.338380156818323</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.2411997960930905</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.3558817747352392</v>
+        <v>-0.3558817747352393</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.002277398811830377</v>
+        <v>-0.01386036428987836</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2948762655518415</v>
+        <v>-0.30143412136646</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4374676059738508</v>
+        <v>-0.4429820010519291</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.001260617213636958</v>
+        <v>-0.005398149810877505</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3112549684623263</v>
+        <v>-0.3085544263073643</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3978038639952545</v>
+        <v>-0.3923104885888308</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01891368205803167</v>
+        <v>0.0101465506977015</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2879616839367153</v>
+        <v>-0.2888886837689969</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.4014528240262442</v>
+        <v>-0.399781785703097</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1897207409216015</v>
+        <v>0.1753681810245307</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1456051872573197</v>
+        <v>-0.1489183166686179</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.2937723075379258</v>
+        <v>-0.3022985703196713</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1536157101724581</v>
+        <v>0.1503076878261204</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1898367744990735</v>
+        <v>-0.1931681514641261</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.2924478945453566</v>
+        <v>-0.2872750891250445</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1442305258342258</v>
+        <v>0.1337183458553224</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1955554504388095</v>
+        <v>-0.1893661082124074</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.3152929105520511</v>
+        <v>-0.3126782764864404</v>
       </c>
     </row>
     <row r="46">
